--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>693</v>
+        <v>1931</v>
       </c>
       <c r="E23" s="22" t="n"/>
     </row>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="D24" s="13" t="n">
-        <v>785</v>
+        <v>2106</v>
       </c>
       <c r="E24" s="22" t="n"/>
     </row>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D25" s="13" t="n">
-        <v>954</v>
+        <v>2250</v>
       </c>
       <c r="E25" s="22" t="n"/>
     </row>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D26" s="13" t="n">
-        <v>1066</v>
+        <v>2320</v>
       </c>
       <c r="E26" s="22" t="n"/>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D27" s="13" t="n">
-        <v>1196</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="24">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D34" s="13" t="n">
-        <v>577</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="24">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D35" s="13" t="n">
-        <v>725.1</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>1931</v>
+        <v>693</v>
       </c>
       <c r="E23" s="22" t="n"/>
     </row>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="D24" s="13" t="n">
-        <v>2106</v>
+        <v>785</v>
       </c>
       <c r="E24" s="22" t="n"/>
     </row>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D25" s="13" t="n">
-        <v>2250</v>
+        <v>954</v>
       </c>
       <c r="E25" s="22" t="n"/>
     </row>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D26" s="13" t="n">
-        <v>2320</v>
+        <v>1066</v>
       </c>
       <c r="E26" s="22" t="n"/>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D27" s="13" t="n">
-        <v>2790</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="24">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D34" s="13" t="n">
-        <v>1351</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="24">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D35" s="13" t="n">
-        <v>1651</v>
+        <v>725.1</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">

--- a/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
+++ b/server/LISTAS/mi/MANGUERA LAVARROPAS DISMAY.xlsx
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="24">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="D23" s="13" t="n">
-        <v>693</v>
+        <v>1931</v>
       </c>
       <c r="E23" s="22" t="n"/>
     </row>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="D24" s="13" t="n">
-        <v>785</v>
+        <v>2106</v>
       </c>
       <c r="E24" s="22" t="n"/>
     </row>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D25" s="13" t="n">
-        <v>954</v>
+        <v>2250</v>
       </c>
       <c r="E25" s="22" t="n"/>
     </row>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D26" s="13" t="n">
-        <v>1066</v>
+        <v>2320</v>
       </c>
       <c r="E26" s="22" t="n"/>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D27" s="13" t="n">
-        <v>1196</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="24">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="D34" s="13" t="n">
-        <v>577</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="24">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D35" s="13" t="n">
-        <v>725.1</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="24">
